--- a/Assortativity_Comparison.xlsx
+++ b/Assortativity_Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sengu\Dropbox\PC\Desktop\SFSU_MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C4CC24-286B-4051-B461-0CF0F51BEF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02AF12-B94E-4147-A8DB-A0AC5D0CBCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" tabRatio="723" xr2:uid="{08D45E46-5AC1-4FA1-9362-3A704BBF12BB}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="310">
   <si>
     <t>Assortativity</t>
   </si>
@@ -1217,24 +1217,9 @@
     <t>3rd Qu.</t>
   </si>
   <si>
-    <t>Summary of Assortativity</t>
-  </si>
-  <si>
     <t>GROUP_LASSO_CV</t>
   </si>
   <si>
-    <t>1,5,6</t>
-  </si>
-  <si>
-    <t>TRUE Group Indexes</t>
-  </si>
-  <si>
-    <t>.9,.9</t>
-  </si>
-  <si>
-    <t>1,0.8,1</t>
-  </si>
-  <si>
     <t>True_Feature_Indexes</t>
   </si>
   <si>
@@ -1302,6 +1287,113 @@
   </si>
   <si>
     <t>Group 15</t>
+  </si>
+  <si>
+    <t>Group 8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LASSO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature indexes 25,43,82,89 are selected when using CV and Permutation Tuning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EXCLUSIVE LASSO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atleast one feature from each group is selected and the features from Lasso are correctly selected.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GROUP LASSO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All features from Feature 
+Groups 1, 5 and 6 are selected  when using CV and Permutation Tuning</t>
+    </r>
+  </si>
+  <si>
+    <t>1,0.7,1</t>
+  </si>
+  <si>
+    <t>1,0.8,0.9</t>
+  </si>
+  <si>
+    <t>Grp-1,Grp-5,Grp-6</t>
+  </si>
+  <si>
+    <t>0.6,0.9,0,0.8</t>
+  </si>
+  <si>
+    <t>Summary of Transitivity</t>
+  </si>
+  <si>
+    <t>Overall Performance</t>
+  </si>
+  <si>
+    <t>Feature Index</t>
+  </si>
+  <si>
+    <t>Feature Blocks/Groups</t>
+  </si>
+  <si>
+    <t>Membership (# of Clusters)</t>
+  </si>
+  <si>
+    <t>LASSO (CV &amp; PLASSO)</t>
+  </si>
+  <si>
+    <t>Group LASSO
+(CV &amp; PLASSO)</t>
+  </si>
+  <si>
+    <t>Exclusive LASSO (CV)</t>
+  </si>
+  <si>
+    <t>True Group Indexes</t>
+  </si>
+  <si>
+    <t>True Group Indexes (from Lasso)</t>
+  </si>
+  <si>
+    <t>Grp-5,Grp-8,Grp-14,Grp-15</t>
+  </si>
+  <si>
+    <t>0.7,0.8,0,0.7</t>
+  </si>
+  <si>
+    <t>0.6,1,0,0.1</t>
   </si>
 </sst>
 </file>
@@ -1348,13 +1440,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1424,8 +1509,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1510,8 +1604,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1674,11 +1774,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1767,24 +1880,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1821,32 +1916,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1861,9 +1953,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1872,15 +1961,103 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1889,6 +2066,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
       <color rgb="FFBDE4FF"/>
       <color rgb="FFEBF7FF"/>
       <color rgb="FFEAEAEA"/>
@@ -2728,7 +2906,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>93133</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>347133</xdr:rowOff>
     </xdr:to>
@@ -2794,13 +2972,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>410631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>588432</xdr:rowOff>
@@ -2856,13 +3034,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>97367</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>122767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>105835</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>359834</xdr:rowOff>
@@ -2929,13 +3107,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>152397</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>93133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>160865</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>330200</xdr:rowOff>
@@ -3002,13 +3180,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>368300</xdr:rowOff>
@@ -3072,13 +3250,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>105835</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>118533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>114303</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>355600</xdr:rowOff>
@@ -3145,13 +3323,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>101601</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>131232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>173566</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>368299</xdr:rowOff>
@@ -3218,13 +3396,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>173566</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>406397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>50802</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>588431</xdr:rowOff>
@@ -3280,13 +3458,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>198966</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>71966</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>376767</xdr:rowOff>
@@ -3353,13 +3531,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>173567</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>402164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>71968</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>579965</xdr:rowOff>
@@ -3415,13 +3593,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>177802</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>402163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>76203</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>579964</xdr:rowOff>
@@ -3477,14 +3655,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>186268</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>406394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>558799</xdr:rowOff>
     </xdr:to>
@@ -3539,14 +3717,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>213782</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -3588,6 +3766,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3627,7 +3806,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -3685,14 +3864,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>224366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -3734,6 +3913,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3773,7 +3953,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -3831,14 +4011,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -3880,6 +4060,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3919,7 +4100,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -3977,14 +4158,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -4026,6 +4207,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4065,7 +4247,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -4123,14 +4305,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -4172,6 +4354,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4211,7 +4394,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -4269,14 +4452,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -4318,6 +4501,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4357,7 +4541,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -4421,8 +4605,8 @@
       <xdr:rowOff>203201</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="164725" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -4464,6 +4648,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4503,7 +4688,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -4561,14 +4746,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -4610,6 +4795,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4649,7 +4835,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -4707,14 +4893,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -4756,6 +4942,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4795,7 +4982,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -4853,14 +5040,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>16933</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -4902,6 +5089,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4941,7 +5129,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -4999,14 +5187,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>232833</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -5048,6 +5236,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5087,7 +5276,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -5145,14 +5334,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>4232</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>232834</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -5194,6 +5383,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5233,7 +5423,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -5291,14 +5481,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>16934</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -5340,6 +5530,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5379,7 +5570,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -5437,14 +5628,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -5486,6 +5677,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5525,7 +5717,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -5583,14 +5775,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>224366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -5632,6 +5824,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5671,7 +5864,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -5729,14 +5922,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -5778,6 +5971,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5817,7 +6011,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -5875,14 +6069,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>237067</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -5924,6 +6118,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5963,7 +6158,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -6021,14 +6216,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -6070,6 +6265,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6109,7 +6305,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -6167,14 +6363,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -6216,6 +6412,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6255,7 +6452,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -6313,14 +6510,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>21167</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -6362,6 +6559,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6401,7 +6599,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -6459,14 +6657,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36">
@@ -6508,6 +6706,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6547,7 +6746,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36">
@@ -6605,14 +6804,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -6654,6 +6853,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6693,7 +6893,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -6751,14 +6951,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>258234</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>220133</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -6800,6 +7000,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6839,7 +7040,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -6897,14 +7098,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>262467</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -6946,6 +7147,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6985,7 +7187,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -7043,14 +7245,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
@@ -7092,6 +7294,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7131,7 +7334,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
@@ -7189,14 +7392,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>4233</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>198967</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -7238,6 +7441,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7277,7 +7481,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -7335,14 +7539,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>4233</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -7384,6 +7588,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7423,7 +7628,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -7481,14 +7686,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>279399</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -7530,6 +7735,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7569,7 +7775,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -7627,14 +7833,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>194734</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44">
@@ -7676,6 +7882,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7715,7 +7922,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44">
@@ -7773,14 +7980,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="TextBox 45">
@@ -7822,6 +8029,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7861,7 +8069,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="TextBox 45">
@@ -7919,14 +8127,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>16932</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="TextBox 46">
@@ -7968,6 +8176,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8007,7 +8216,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="TextBox 46">
@@ -8065,14 +8274,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>220133</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>198968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="TextBox 47">
@@ -8114,6 +8323,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8153,7 +8363,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="TextBox 47">
@@ -8211,14 +8421,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>213782</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="81" name="TextBox 80">
@@ -8260,6 +8470,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8299,7 +8510,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="81" name="TextBox 80">
@@ -8357,14 +8568,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>224366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81">
@@ -8406,6 +8617,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8445,7 +8657,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81">
@@ -8503,14 +8715,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="83" name="TextBox 82">
@@ -8552,6 +8764,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8591,7 +8804,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="83" name="TextBox 82">
@@ -8649,14 +8862,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83">
@@ -8698,6 +8911,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8737,7 +8951,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83">
@@ -8795,14 +9009,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="85" name="TextBox 84">
@@ -8844,6 +9058,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8883,7 +9098,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="85" name="TextBox 84">
@@ -8941,14 +9156,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="86" name="TextBox 85">
@@ -8990,6 +9205,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9029,7 +9245,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="86" name="TextBox 85">
@@ -9093,8 +9309,8 @@
       <xdr:rowOff>203201</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="164725" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="87" name="TextBox 86">
@@ -9136,6 +9352,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9175,7 +9392,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="87" name="TextBox 86">
@@ -9233,14 +9450,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="88" name="TextBox 87">
@@ -9282,6 +9499,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9321,7 +9539,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="88" name="TextBox 87">
@@ -9379,14 +9597,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="89" name="TextBox 88">
@@ -9428,6 +9646,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9467,7 +9686,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="89" name="TextBox 88">
@@ -9525,14 +9744,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>16933</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="90" name="TextBox 89">
@@ -9574,6 +9793,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9613,7 +9833,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="90" name="TextBox 89">
@@ -9671,14 +9891,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>232833</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="91" name="TextBox 90">
@@ -9720,6 +9940,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9759,7 +9980,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="91" name="TextBox 90">
@@ -9817,14 +10038,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>4232</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>232834</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="92" name="TextBox 91">
@@ -9866,6 +10087,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9905,7 +10127,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="92" name="TextBox 91">
@@ -9963,14 +10185,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>16934</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="93" name="TextBox 92">
@@ -10012,6 +10234,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10051,7 +10274,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="93" name="TextBox 92">
@@ -10109,14 +10332,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="94" name="TextBox 93">
@@ -10158,6 +10381,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10197,7 +10421,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="94" name="TextBox 93">
@@ -10255,14 +10479,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>224366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="95" name="TextBox 94">
@@ -10304,6 +10528,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10343,7 +10568,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="95" name="TextBox 94">
@@ -10401,14 +10626,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="96" name="TextBox 95">
@@ -10450,6 +10675,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10489,7 +10715,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="96" name="TextBox 95">
@@ -10547,14 +10773,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>237067</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="97" name="TextBox 96">
@@ -10596,6 +10822,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10635,7 +10862,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="97" name="TextBox 96">
@@ -10693,14 +10920,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="98" name="TextBox 97">
@@ -10742,6 +10969,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10781,7 +11009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="98" name="TextBox 97">
@@ -10839,14 +11067,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="99" name="TextBox 98">
@@ -10888,6 +11116,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10927,7 +11156,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="99" name="TextBox 98">
@@ -10985,14 +11214,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>21167</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="100" name="TextBox 99">
@@ -11034,6 +11263,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11073,7 +11303,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="100" name="TextBox 99">
@@ -11131,14 +11361,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="101" name="TextBox 100">
@@ -11180,6 +11410,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11219,7 +11450,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="101" name="TextBox 100">
@@ -11277,14 +11508,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="102" name="TextBox 101">
@@ -11326,6 +11557,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11365,7 +11597,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="102" name="TextBox 101">
@@ -11423,14 +11655,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>258234</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>220133</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="103" name="TextBox 102">
@@ -11472,6 +11704,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11511,7 +11744,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="103" name="TextBox 102">
@@ -11569,14 +11802,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>262467</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="104" name="TextBox 103">
@@ -11618,6 +11851,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11657,7 +11891,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="104" name="TextBox 103">
@@ -11715,14 +11949,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="105" name="TextBox 104">
@@ -11764,6 +11998,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11803,7 +12038,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="105" name="TextBox 104">
@@ -11861,14 +12096,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>4233</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>198967</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="106" name="TextBox 105">
@@ -11910,6 +12145,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11949,7 +12185,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="106" name="TextBox 105">
@@ -12007,14 +12243,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>4233</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="107" name="TextBox 106">
@@ -12056,6 +12292,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12095,7 +12332,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="107" name="TextBox 106">
@@ -12153,14 +12390,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>279399</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="108" name="TextBox 107">
@@ -12202,6 +12439,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12241,7 +12479,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="108" name="TextBox 107">
@@ -12299,14 +12537,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>194734</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="109" name="TextBox 108">
@@ -12348,6 +12586,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12387,7 +12626,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="109" name="TextBox 108">
@@ -12445,14 +12684,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="110" name="TextBox 109">
@@ -12494,6 +12733,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12533,7 +12773,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="110" name="TextBox 109">
@@ -12591,14 +12831,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>16932</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="111" name="TextBox 110">
@@ -12640,6 +12880,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12679,7 +12920,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="111" name="TextBox 110">
@@ -12737,14 +12978,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>220133</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>198968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="112" name="TextBox 111">
@@ -12786,6 +13027,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12825,7 +13067,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="112" name="TextBox 111">
@@ -12883,14 +13125,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>213782</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="TextBox 112">
@@ -12932,6 +13174,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12971,7 +13214,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="TextBox 112">
@@ -13029,14 +13272,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>224366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="114" name="TextBox 113">
@@ -13078,6 +13321,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13117,7 +13361,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="114" name="TextBox 113">
@@ -13175,14 +13419,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="115" name="TextBox 114">
@@ -13224,6 +13468,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13263,7 +13508,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="115" name="TextBox 114">
@@ -13321,14 +13566,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="116" name="TextBox 115">
@@ -13370,6 +13615,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13409,7 +13655,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="116" name="TextBox 115">
@@ -13467,14 +13713,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="117" name="TextBox 116">
@@ -13516,6 +13762,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13555,7 +13802,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="117" name="TextBox 116">
@@ -13613,14 +13860,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="TextBox 117">
@@ -13662,6 +13909,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13701,7 +13949,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="TextBox 117">
@@ -13765,8 +14013,8 @@
       <xdr:rowOff>203201</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="164725" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="119" name="TextBox 118">
@@ -13808,6 +14056,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13847,7 +14096,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="119" name="TextBox 118">
@@ -13905,14 +14154,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="120" name="TextBox 119">
@@ -13954,6 +14203,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13993,7 +14243,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="120" name="TextBox 119">
@@ -14051,14 +14301,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="121" name="TextBox 120">
@@ -14100,6 +14350,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14139,7 +14390,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="121" name="TextBox 120">
@@ -14197,14 +14448,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>16933</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="TextBox 121">
@@ -14246,6 +14497,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14285,7 +14537,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="TextBox 121">
@@ -14343,14 +14595,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>232833</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="123" name="TextBox 122">
@@ -14392,6 +14644,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14431,7 +14684,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="123" name="TextBox 122">
@@ -14489,14 +14742,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>4232</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>232834</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="124" name="TextBox 123">
@@ -14538,6 +14791,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14577,7 +14831,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="124" name="TextBox 123">
@@ -14635,14 +14889,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>16934</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="125" name="TextBox 124">
@@ -14684,6 +14938,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14723,7 +14978,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="125" name="TextBox 124">
@@ -14781,14 +15036,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="126" name="TextBox 125">
@@ -14830,6 +15085,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14869,7 +15125,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="126" name="TextBox 125">
@@ -14927,14 +15183,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>224366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="127" name="TextBox 126">
@@ -14976,6 +15232,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15015,7 +15272,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="127" name="TextBox 126">
@@ -15073,14 +15330,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="128" name="TextBox 127">
@@ -15122,6 +15379,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15161,7 +15419,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="128" name="TextBox 127">
@@ -15219,14 +15477,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>237067</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="129" name="TextBox 128">
@@ -15268,6 +15526,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15307,7 +15566,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="129" name="TextBox 128">
@@ -15365,14 +15624,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="130" name="TextBox 129">
@@ -15414,6 +15673,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15453,7 +15713,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="130" name="TextBox 129">
@@ -15511,14 +15771,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="221536" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="131" name="TextBox 130">
@@ -15560,6 +15820,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15599,7 +15860,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="131" name="TextBox 130">
@@ -15657,14 +15918,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>21167</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="132" name="TextBox 131">
@@ -15706,6 +15967,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15745,7 +16007,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="132" name="TextBox 131">
@@ -15803,14 +16065,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="133" name="TextBox 132">
@@ -15852,6 +16114,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15891,7 +16154,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="133" name="TextBox 132">
@@ -15949,14 +16212,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="134" name="TextBox 133">
@@ -15998,6 +16261,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -16037,7 +16301,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="134" name="TextBox 133">
@@ -16095,14 +16359,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>258234</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>220133</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="TextBox 134">
@@ -16144,6 +16408,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -16183,7 +16448,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="TextBox 134">
@@ -16241,14 +16506,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>262467</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="136" name="TextBox 135">
@@ -16290,6 +16555,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -16329,7 +16595,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="136" name="TextBox 135">
@@ -16387,14 +16653,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="137" name="TextBox 136">
@@ -16436,6 +16702,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -16475,7 +16742,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="137" name="TextBox 136">
@@ -16533,14 +16800,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>4233</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>198967</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="138" name="TextBox 137">
@@ -16582,6 +16849,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -16621,7 +16889,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="138" name="TextBox 137">
@@ -16679,14 +16947,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>4233</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="139" name="TextBox 138">
@@ -16728,6 +16996,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -16767,7 +17036,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="139" name="TextBox 138">
@@ -16825,14 +17094,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>279399</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="TextBox 139">
@@ -16874,6 +17143,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -16913,7 +17183,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="TextBox 139">
@@ -16971,14 +17241,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>194734</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="141" name="TextBox 140">
@@ -17020,6 +17290,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -17059,7 +17330,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="141" name="TextBox 140">
@@ -17117,14 +17388,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="142" name="TextBox 141">
@@ -17166,6 +17437,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -17205,7 +17477,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="142" name="TextBox 141">
@@ -17263,14 +17535,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>16932</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="227563" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="143" name="TextBox 142">
@@ -17312,6 +17584,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -17351,7 +17624,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="143" name="TextBox 142">
@@ -17409,14 +17682,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>220133</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>198968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="224742" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="144" name="TextBox 143">
@@ -17458,6 +17731,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -17497,7 +17771,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="144" name="TextBox 143">
@@ -17553,6 +17827,222 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89371</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>526815</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BD8D4C-BF6D-655F-1437-CFB91D3C6F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2728148" y="2535296"/>
+          <a:ext cx="4704" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>110066</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114770</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>561623</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A92CF69-6AD1-45E6-8B52-8065C238D9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6511807" y="2570104"/>
+          <a:ext cx="4704" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>97836</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>102540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>539986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418ED810-7DF5-48B5-8520-5E37099BB791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8489244" y="2548467"/>
+          <a:ext cx="4704" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>104422</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>109126</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>546572</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D7512B-825D-47F3-B0FB-CA9A34F275F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10720681" y="2555053"/>
+          <a:ext cx="4704" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17571,8 +18061,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Flowchart: Multidocument 1">
@@ -17719,7 +18209,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17732,7 +18222,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17774,7 +18264,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17787,7 +18277,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17832,7 +18322,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Flowchart: Multidocument 1">
@@ -18003,8 +18493,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>13229</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Flowchart: Multidocument 2">
@@ -18208,7 +18698,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18221,7 +18711,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18249,7 +18739,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18281,7 +18771,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18306,7 +18796,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18334,7 +18824,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18368,7 +18858,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Flowchart: Multidocument 2">
@@ -18796,8 +19286,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>4234</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Flowchart: Multidocument 5">
@@ -18978,7 +19468,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19003,7 +19493,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19017,7 +19507,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19049,7 +19539,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19062,7 +19552,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19076,7 +19566,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19108,7 +19598,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19121,7 +19611,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19173,7 +19663,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19205,7 +19695,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19230,7 +19720,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19256,7 +19746,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19270,7 +19760,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19317,7 +19807,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Flowchart: Multidocument 5">
@@ -20319,6 +20809,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427567</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1081043</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>686684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABBBB5F-D515-F4FA-75B6-E42AE2F366A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="2717800"/>
+          <a:ext cx="653476" cy="610484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452967</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1063450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>661283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361D0FAA-B292-C1A0-C7EC-659B306FC6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4466167" y="3416300"/>
+          <a:ext cx="610483" cy="610483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>474134</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1127610</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>695150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE27F1E8-6B3D-4A97-9B23-1A4D64D035A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9169401" y="2726266"/>
+          <a:ext cx="653476" cy="610484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541867</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1152350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>657050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7540C5-1635-4F2F-A4EA-2EFF3973D510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9237134" y="3412067"/>
+          <a:ext cx="610483" cy="610483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>503765</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1231898</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>694267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C5E0CF-7D7A-62DF-9654-38CA3739FA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9199032" y="4109711"/>
+          <a:ext cx="728133" cy="673956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20619,7 +21334,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -20630,7 +21345,7 @@
     <col min="4" max="5" width="6.76171875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.05859375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.52734375" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.9375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.3515625" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -20692,7 +21407,7 @@
       <c r="J2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="61">
         <v>1</v>
       </c>
     </row>
@@ -20808,10 +21523,10 @@
       <c r="J6" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="61">
         <v>5</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="48">
         <v>25</v>
       </c>
     </row>
@@ -20831,7 +21546,7 @@
       <c r="J7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="61">
         <v>6</v>
       </c>
     </row>
@@ -20874,7 +21589,7 @@
       <c r="K9">
         <v>8</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="48">
         <v>43</v>
       </c>
     </row>
@@ -20997,7 +21712,7 @@
       <c r="K15">
         <v>14</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="48">
         <v>82</v>
       </c>
     </row>
@@ -21020,11 +21735,12 @@
       <c r="K16">
         <v>15</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="48">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -21035,14 +21751,20 @@
         <f>CONCATENATE("rep(",A18,",",B18,"),")</f>
         <v>rep(1,1),</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="24" t="s">
         <v>213</v>
       </c>
+      <c r="H18" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>2</v>
       </c>
@@ -21053,14 +21775,20 @@
         <f>CONCATENATE("rep(",A19,",",B19,"),")</f>
         <v>rep(2,6),</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="34" t="s">
         <v>27</v>
       </c>
+      <c r="H19" s="87">
+        <v>1</v>
+      </c>
+      <c r="I19" s="89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>3</v>
       </c>
@@ -21071,14 +21799,20 @@
         <f t="shared" ref="C20:C47" si="0">CONCATENATE("rep(",A20,",",B20,"),")</f>
         <v>rep(3,6),</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H20" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="89">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>4</v>
       </c>
@@ -21089,14 +21823,20 @@
         <f t="shared" si="0"/>
         <v>rep(4,6),</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H21" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="89">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>5</v>
       </c>
@@ -21107,14 +21847,20 @@
         <f t="shared" si="0"/>
         <v>rep(5,6),</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H22" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="89">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>6</v>
       </c>
@@ -21125,14 +21871,20 @@
         <f t="shared" si="0"/>
         <v>rep(6,6),</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H23" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="89">
+        <v>5</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>7</v>
       </c>
@@ -21143,14 +21895,20 @@
         <f t="shared" si="0"/>
         <v>rep(7,6),</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H24" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="89">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>8</v>
       </c>
@@ -21161,14 +21919,20 @@
         <f t="shared" si="0"/>
         <v>rep(8,6),</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H25" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="89">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>9</v>
       </c>
@@ -21179,14 +21943,20 @@
         <f t="shared" si="0"/>
         <v>rep(9,7),</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H26" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="89">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>10</v>
       </c>
@@ -21197,14 +21967,20 @@
         <f t="shared" si="0"/>
         <v>rep(10,7),</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="34" t="s">
         <v>211</v>
       </c>
+      <c r="H27" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="89">
+        <v>9</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>11</v>
       </c>
@@ -21215,14 +21991,20 @@
         <f t="shared" si="0"/>
         <v>rep(11,6),</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="34" t="s">
         <v>211</v>
       </c>
+      <c r="H28" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="89">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>12</v>
       </c>
@@ -21233,14 +22015,20 @@
         <f t="shared" si="0"/>
         <v>rep(12,6),</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H29" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="89">
+        <v>11</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>13</v>
       </c>
@@ -21251,14 +22039,20 @@
         <f t="shared" si="0"/>
         <v>rep(13,7),</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H30" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="89">
+        <v>12</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>14</v>
       </c>
@@ -21269,14 +22063,20 @@
         <f t="shared" si="0"/>
         <v>rep(14,6),</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="34" t="s">
         <v>211</v>
       </c>
+      <c r="H31" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="89">
+        <v>13</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>15</v>
       </c>
@@ -21287,14 +22087,20 @@
         <f t="shared" si="0"/>
         <v>rep(15,7),</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="22" t="s">
         <v>210</v>
       </c>
+      <c r="H32" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="89">
+        <v>14</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>16</v>
       </c>
@@ -21305,14 +22111,20 @@
         <f t="shared" si="0"/>
         <v>rep(16,1),</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="34" t="s">
         <v>211</v>
       </c>
+      <c r="H33" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" s="89">
+        <v>15</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>17</v>
       </c>
@@ -21324,7 +22136,7 @@
         <v>rep(17,6),</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>18</v>
       </c>
@@ -21336,7 +22148,7 @@
         <v>rep(18,6),</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>19</v>
       </c>
@@ -21348,7 +22160,7 @@
         <v>rep(19,6),</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>20</v>
       </c>
@@ -21360,7 +22172,7 @@
         <v>rep(20,6),</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>21</v>
       </c>
@@ -21372,7 +22184,7 @@
         <v>rep(21,6),</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>22</v>
       </c>
@@ -21384,7 +22196,7 @@
         <v>rep(22,6),</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>23</v>
       </c>
@@ -21396,7 +22208,7 @@
         <v>rep(23,6),</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>24</v>
       </c>
@@ -21408,7 +22220,7 @@
         <v>rep(24,7),</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>25</v>
       </c>
@@ -21420,7 +22232,7 @@
         <v>rep(25,7),</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>26</v>
       </c>
@@ -21432,7 +22244,7 @@
         <v>rep(26,6),</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>27</v>
       </c>
@@ -21444,7 +22256,7 @@
         <v>rep(27,6),</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>28</v>
       </c>
@@ -21456,7 +22268,7 @@
         <v>rep(28,7),</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>29</v>
       </c>
@@ -21468,7 +22280,7 @@
         <v>rep(29,6),</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>30</v>
       </c>
@@ -21488,70 +22300,132 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05595A68-B6AC-4587-B1ED-BBFB08861183}">
-  <dimension ref="D2:J5"/>
+  <dimension ref="D2:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="5" max="5" width="7.46875" customWidth="1"/>
-    <col min="8" max="8" width="11.5859375" customWidth="1"/>
+    <col min="4" max="4" width="4.3515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.234375" customWidth="1"/>
+    <col min="7" max="7" width="22.8203125" customWidth="1"/>
+    <col min="8" max="8" width="19.87890625" customWidth="1"/>
+    <col min="9" max="9" width="4.64453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.234375" customWidth="1"/>
+    <col min="11" max="11" width="23.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="18" x14ac:dyDescent="0.6">
-      <c r="F2" s="68" t="s">
+    <row r="2" spans="4:11" ht="18" x14ac:dyDescent="0.6">
+      <c r="F2" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D4" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D5" s="59">
+        <v>0</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0</v>
+      </c>
+      <c r="F5" s="59">
+        <v>0</v>
+      </c>
+      <c r="G5" s="59">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H5" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="59">
+        <v>1</v>
+      </c>
+      <c r="J5" s="59">
+        <v>13596</v>
+      </c>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="14" spans="4:11" ht="18" x14ac:dyDescent="0.6">
+      <c r="F14" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="J14" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="86" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F15" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="J15" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="K15" s="85"/>
+    </row>
+    <row r="16" spans="4:11" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F16" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="G16" s="59"/>
+      <c r="J16" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="85"/>
     </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D4" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" s="67" t="s">
-        <v>262</v>
-      </c>
+    <row r="17" spans="6:11" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F17" s="98"/>
+      <c r="G17" s="99"/>
+      <c r="J17" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="85"/>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D5" s="66">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="66">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="66">
-        <v>-0.80600000000000005</v>
-      </c>
-      <c r="G5" s="66">
-        <v>-0.67500000000000004</v>
-      </c>
-      <c r="H5" s="66">
-        <v>-0.42899999999999999</v>
-      </c>
-      <c r="I5" s="66">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="J5" s="66">
-        <v>13880</v>
-      </c>
+    <row r="18" spans="6:11" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+    </row>
+    <row r="19" spans="6:11" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21559,6 +22433,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21605,7 +22480,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="72" t="s">
         <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -21628,7 +22503,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="38"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="1" t="s">
         <v>195</v>
       </c>
@@ -21649,7 +22524,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="76" t="s">
         <v>201</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -21672,7 +22547,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="39"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="33" t="s">
         <v>195</v>
       </c>
@@ -21693,7 +22568,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="72" t="s">
         <v>202</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -21716,7 +22591,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="38"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="1" t="s">
         <v>195</v>
       </c>
@@ -21737,7 +22612,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="72" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -21760,7 +22635,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="38"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="1" t="s">
         <v>195</v>
       </c>
@@ -21781,7 +22656,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="72" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -21804,7 +22679,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="38"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="1" t="s">
         <v>207</v>
       </c>
@@ -21942,15 +22817,15 @@
       <c r="C1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -22708,107 +23583,107 @@
       </c>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="58" t="s">
         <v>135</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="58" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="57" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="58" t="s">
         <v>133</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="43"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="58" t="s">
         <v>136</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" s="43"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="58" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="I23" s="43"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="58" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
       </c>
-      <c r="I24" s="43"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G26" s="65" t="s">
+      <c r="G26" s="58" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G27" s="65" t="s">
+      <c r="G27" s="58" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="43"/>
+      <c r="I27" s="37"/>
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="58" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28" s="43"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.5">
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="43"/>
+      <c r="I29" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22818,10 +23693,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02DD514-0990-478B-BBFA-7E760B59587E}">
-  <dimension ref="B1:L48"/>
+  <dimension ref="B2:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -22830,502 +23705,793 @@
     <col min="2" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.76171875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.17578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8203125" customWidth="1"/>
+    <col min="7" max="7" width="27.703125" customWidth="1"/>
+    <col min="8" max="8" width="11.46875" customWidth="1"/>
+    <col min="9" max="9" width="10.05859375" customWidth="1"/>
+    <col min="10" max="10" width="12.8203125" customWidth="1"/>
+    <col min="11" max="11" width="10.5859375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B1" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="G1" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" s="77" t="s">
-        <v>191</v>
-      </c>
+      <c r="C2" s="71"/>
+      <c r="G2" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B3" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0.58333330000000005</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.79166669999999995</v>
+      <c r="B3" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B4" s="74" t="s">
-        <v>276</v>
+      <c r="B4" s="65" t="s">
+        <v>270</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+        <v>269</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="78">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J4" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="78">
+        <v>0.88333329999999999</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B5" s="74" t="s">
-        <v>278</v>
+      <c r="B5" s="65" t="s">
+        <v>271</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="79">
+        <v>0.57761899999999999</v>
+      </c>
+      <c r="J5" s="79">
+        <v>0.54</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="L5" s="79">
+        <v>0.55492059999999999</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B6" s="74" t="s">
-        <v>280</v>
+      <c r="B6" s="65" t="s">
+        <v>273</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B7" s="74"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B8" s="76" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>148</v>
+      <c r="B8" s="65"/>
+      <c r="C8" s="8"/>
+      <c r="F8" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="78">
+        <v>0.75</v>
+      </c>
+      <c r="I8" s="78">
+        <v>0.49</v>
+      </c>
+      <c r="J8" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="78">
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B9" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="K9" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="L9" s="77" t="s">
-        <v>191</v>
+      <c r="B9" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="79">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I9" s="79">
+        <v>0.39678570000000002</v>
+      </c>
+      <c r="J9" s="79">
+        <v>0.53242420000000001</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="L9" s="79">
+        <v>0.42142859999999999</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B10" s="74" t="s">
-        <v>276</v>
+      <c r="B10" s="65" t="s">
+        <v>270</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="8">
-        <v>0.93333330000000003</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.53357140000000003</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0.56333330000000004</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0.62682539999999998</v>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.8518519</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.25806449999999997</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B11" s="74" t="s">
-        <v>278</v>
+      <c r="B11" s="65" t="s">
+        <v>271</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.93333330000000003</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.26666669999999998</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.81904759999999999</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0.91111109999999995</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B12" s="74" t="s">
-        <v>280</v>
+      <c r="B12" s="65" t="s">
+        <v>273</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>281</v>
+        <v>274</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" s="66" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="F13" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="J13" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="K13" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="77" t="s">
-        <v>191</v>
+      <c r="B13" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0.42428569999999999</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0.8074074</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0.8518519</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.25806449999999997</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
+      <c r="F14" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0.63095239999999997</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0.4376623</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0.5962963</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B15" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>148</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B17" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B17" s="74" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B18" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B19" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" t="s">
+        <v>271</v>
+      </c>
+      <c r="J19" t="s">
+        <v>273</v>
+      </c>
+      <c r="K19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="F20" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I20" t="s">
+        <v>272</v>
+      </c>
+      <c r="J20" t="s">
+        <v>274</v>
+      </c>
+      <c r="K20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B21" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C21" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B22" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" t="s">
+        <v>301</v>
+      </c>
+      <c r="I22" t="s">
         <v>12</v>
       </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B18" s="74" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B23" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="F24" s="65"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B25" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="G25" s="66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B26" s="77">
+        <v>1</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="F27" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="F28" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B29">
         <v>13</v>
       </c>
+      <c r="C29" s="30"/>
+      <c r="F29" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B20" s="76" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="F30" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" s="66" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="F31" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B32" s="77">
+        <v>23</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B33" s="61">
+        <v>25</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="F33" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B34" s="77">
+        <v>26</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B35" s="77">
+        <v>27</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="F35" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="93"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B36" s="77">
+        <v>31</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="F36" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" s="96">
+        <v>25</v>
+      </c>
+      <c r="H36" s="96">
+        <v>43</v>
+      </c>
+      <c r="I36" s="96">
+        <v>82</v>
+      </c>
+      <c r="J36" s="96">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B38" s="61">
+        <v>43</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="C20" s="75" t="s">
-        <v>148</v>
+      <c r="F38" s="97" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" s="96">
+        <v>25</v>
+      </c>
+      <c r="H38" s="96">
+        <v>43</v>
+      </c>
+      <c r="I38" s="96">
+        <v>82</v>
+      </c>
+      <c r="J38" s="96">
+        <v>89</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B21" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>26</v>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B39">
+        <v>49</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B22" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B24" s="76" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" s="30"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B27">
-        <v>11</v>
-      </c>
-      <c r="C27" s="30"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B28">
-        <v>13</v>
-      </c>
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B29">
-        <v>14</v>
-      </c>
-      <c r="C29" s="30"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B30">
-        <v>18</v>
-      </c>
-      <c r="C30" s="30"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B31">
-        <v>23</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B32" s="69">
-        <v>25</v>
-      </c>
-      <c r="C32" s="38"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B33">
-        <v>26</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B34">
-        <v>27</v>
-      </c>
-      <c r="C34" s="38"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B35">
-        <v>31</v>
-      </c>
-      <c r="C35" s="38"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B36">
-        <v>37</v>
-      </c>
-      <c r="C36" s="30"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B37" s="69">
-        <v>43</v>
-      </c>
-      <c r="C37" s="30"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B38">
-        <v>49</v>
-      </c>
-      <c r="C38" s="30"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B39">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B40">
         <v>56</v>
-      </c>
-      <c r="C39" s="30"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B40">
-        <v>58</v>
       </c>
       <c r="C40" s="30"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B41">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C41" s="30"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B42">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C42" s="30"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B43">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="30"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B44">
+        <v>74</v>
+      </c>
+      <c r="C44" s="30"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B45" s="77">
         <v>81</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>292</v>
+      <c r="C45" s="72" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B45" s="69">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B46" s="61">
         <v>82</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C46" s="72"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B46">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B47" s="77">
         <v>84</v>
       </c>
-      <c r="C46" s="38" t="s">
-        <v>293</v>
+      <c r="C47" s="72" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B47">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B48" s="77">
         <v>87</v>
       </c>
-      <c r="C47" s="38"/>
+      <c r="C48" s="72"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B48" s="69">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B49" s="61">
         <v>89</v>
       </c>
-      <c r="C48" s="38"/>
+      <c r="C49" s="72"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B55" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B56" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B57" s="95"/>
+      <c r="C57" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C48"/>
+  <mergeCells count="11">
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23349,223 +24515,223 @@
     <col min="32" max="32" width="3.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" s="48" customFormat="1" ht="49.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="2:31" s="42" customFormat="1" ht="49.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="46" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="U2" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Y2" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AA2" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="AC2" s="46" t="s">
+      <c r="AC2" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="AE2" s="51" t="s">
+      <c r="AE2" s="45" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="3" spans="2:31" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="AE3" s="45"/>
+      <c r="AE3" s="39"/>
     </row>
     <row r="4" spans="2:31" ht="53" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="46" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="46" t="s">
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="V4" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="49" t="s">
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="Z4" s="49" t="s">
+      <c r="Z4" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="AA4" s="49" t="s">
+      <c r="AA4" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="AB4" s="49" t="s">
+      <c r="AB4" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="AC4" s="49" t="s">
+      <c r="AC4" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="51" t="s">
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="45" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="52.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="46" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="46" t="s">
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="R6" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="S6" s="46" t="s">
+      <c r="S6" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="T6" s="49" t="s">
+      <c r="T6" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="U6" s="46" t="s">
+      <c r="U6" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="V6" s="46" t="s">
+      <c r="V6" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="49" t="s">
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="Z6" s="49" t="s">
+      <c r="Z6" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="AA6" s="46" t="s">
+      <c r="AA6" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="AB6" s="46" t="s">
+      <c r="AB6" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="AC6" s="46" t="s">
+      <c r="AC6" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="51" t="s">
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="45" t="s">
         <v>235</v>
       </c>
     </row>
@@ -23578,320 +24744,294 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FD48FD-4714-46C6-BA63-DDEDA770BA9D}">
-  <dimension ref="A2:AX9"/>
+  <dimension ref="A2:AR9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.7" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
+    <col min="1" max="1" width="8.9375" customWidth="1"/>
     <col min="2" max="2" width="3.17578125" customWidth="1"/>
-    <col min="3" max="32" width="3.05859375" customWidth="1"/>
-    <col min="33" max="33" width="3.29296875" customWidth="1"/>
-    <col min="34" max="34" width="2.9375" customWidth="1"/>
-    <col min="35" max="35" width="3.1171875" customWidth="1"/>
-    <col min="36" max="36" width="2.9375" customWidth="1"/>
-    <col min="37" max="37" width="3" customWidth="1"/>
-    <col min="38" max="43" width="3.05859375" customWidth="1"/>
-    <col min="44" max="44" width="3.1171875" customWidth="1"/>
-    <col min="45" max="45" width="3.234375" customWidth="1"/>
-    <col min="46" max="46" width="3.05859375" customWidth="1"/>
-    <col min="47" max="47" width="2.87890625" customWidth="1"/>
-    <col min="48" max="49" width="3.05859375" customWidth="1"/>
-    <col min="50" max="50" width="26.17578125" customWidth="1"/>
-    <col min="51" max="51" width="3.05859375" customWidth="1"/>
+    <col min="3" max="29" width="3.05859375" customWidth="1"/>
+    <col min="30" max="30" width="3.29296875" customWidth="1"/>
+    <col min="31" max="31" width="2.9375" customWidth="1"/>
+    <col min="32" max="32" width="3.1171875" customWidth="1"/>
+    <col min="33" max="33" width="2.9375" customWidth="1"/>
+    <col min="34" max="34" width="3" customWidth="1"/>
+    <col min="35" max="39" width="3.05859375" customWidth="1"/>
+    <col min="40" max="40" width="3.1171875" customWidth="1"/>
+    <col min="41" max="41" width="3.234375" customWidth="1"/>
+    <col min="42" max="42" width="3.05859375" customWidth="1"/>
+    <col min="43" max="43" width="2.87890625" customWidth="1"/>
+    <col min="44" max="44" width="26.17578125" customWidth="1"/>
+    <col min="45" max="45" width="3.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:50" s="48" customFormat="1" ht="49.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="49"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AX2" s="51" t="s">
-        <v>234</v>
+    <row r="2" spans="1:44" s="42" customFormat="1" ht="49.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="41"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="45" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="AX3" s="45"/>
+    <row r="3" spans="1:44" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AR3" s="39"/>
     </row>
-    <row r="4" spans="1:50" ht="53" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="71"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="51" t="s">
-        <v>236</v>
+    <row r="4" spans="1:44" ht="53" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="63"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="45" t="s">
+        <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="52.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="71"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="51" t="s">
-        <v>235</v>
+    <row r="6" spans="1:44" ht="52.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="63"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="45" t="s">
+        <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
+    <row r="7" spans="1:44" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
     </row>
-    <row r="8" spans="1:50" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="72"/>
+    <row r="8" spans="1:44" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="64"/>
     </row>
-    <row r="9" spans="1:50" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
+    <row r="9" spans="1:44" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23911,17 +25051,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:9" x14ac:dyDescent="0.5">
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="7" spans="4:9" ht="18" x14ac:dyDescent="0.6">
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="46" t="s">
         <v>237</v>
       </c>
     </row>
@@ -23939,7 +25079,7 @@
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.5">
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="47" t="s">
         <v>243</v>
       </c>
     </row>
@@ -23973,16 +25113,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
@@ -24112,16 +25252,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="16" t="s">
@@ -24294,13 +25434,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="6" spans="3:11" ht="27.35" x14ac:dyDescent="0.5">
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="45" t="s">
         <v>251</v>
       </c>
       <c r="E6" s="32" t="s">
@@ -24310,7 +25450,7 @@
       <c r="G6" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="50" t="s">
         <v>252</v>
       </c>
       <c r="I6" s="32" t="s">
@@ -24318,76 +25458,76 @@
       </c>
     </row>
     <row r="8" spans="3:11" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="52" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="54" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="61" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="54" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="61" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="54" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="61" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="54" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="14" t="s">
@@ -24395,20 +25535,20 @@
       </c>
     </row>
     <row r="13" spans="3:11" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="61" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="54" t="s">
         <v>133</v>
       </c>
       <c r="K13" s="14" t="s">
@@ -24416,20 +25556,20 @@
       </c>
     </row>
     <row r="14" spans="3:11" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="61" t="s">
+      <c r="F14" s="55"/>
+      <c r="G14" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="54" t="s">
         <v>249</v>
       </c>
       <c r="K14" s="14" t="s">
@@ -24437,109 +25577,109 @@
       </c>
     </row>
     <row r="15" spans="3:11" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="61" t="s">
+      <c r="F15" s="55"/>
+      <c r="G15" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="61" t="s">
+      <c r="F16" s="55"/>
+      <c r="G16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="54" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="5:14" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="61" t="s">
+      <c r="F17" s="55"/>
+      <c r="G17" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="5:14" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="61" t="s">
+      <c r="F18" s="55"/>
+      <c r="G18" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="5:14" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="52" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:14" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="5:14" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="52" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.5">
-      <c r="N25" s="51"/>
+      <c r="N25" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
